--- a/biology/Médecine/Benjamin_Spock/Benjamin_Spock.xlsx
+++ b/biology/Médecine/Benjamin_Spock/Benjamin_Spock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benjamin McLane Spock, né le 2 mai 1903 à New Haven dans le Connecticut et mort le 15 mars 1998 à La Jolla en Californie, est un athlète et un pédiatre américain qui publia en 1946 le livre The Common Sense Book of Baby and Child Care (traduit en 1952 sous le titre Comment soigner et éduquer son enfant), qui devint un best-seller mondial (en 1998 plus de 50 millions d'exemplaires traduits en 39 langues).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il aida ses parents à élever ses cinq frères et sœurs plus jeunes. Il commença ses études de médecine à l'université Yale, où il devint membre des confréries Scroll and Key et Zeta Psi (en). Membre de l'équipe d'aviron à huit, il gagna une médaille d'or aux Jeux olympiques d'été de 1924 à Paris.
 Il termina ses études à l'Université Columbia à New York, et sortit premier de sa promotion en 1929. Il fit son internat de pédiatrie au collège médical Weill Cornell à Manhattan, et son internat de psychiatrie à la clinique Payne Whitney de l'Université Cornell.
@@ -545,7 +559,9 @@
           <t>Idées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son message révolutionnaire pour les mères était « vous en savez bien plus que vous ne croyez ». Il a été le premier pédiatre à étudier la psychanalyse pour essayer de comprendre les besoins des enfants et la dynamique familiale. Ses conseils d'éducation ont conduit plusieurs générations de parents à être plus souples et plus affectueux avec leurs enfants, en les considérant comme des personnes, à une époque où l'on pensait que l'éducation des enfants devait surtout porter sur l'apprentissage de la discipline, comme ne pas prendre dans ses bras un enfant qui pleure, pour éviter de le gâter.
 Spock défendait des idées qui n'étaient pas courantes : avec le temps, ses livres contribuèrent à changer voire à retourner les opinions de ceux qui étaient les spécialistes de l'époque. Auparavant les experts avaient enseigné aux parents que les bébés avaient besoin d'apprendre à dormir avec des horaires réguliers, et que les prendre dans les bras à chaque fois qu'ils pleuraient ne ferait que leur apprendre à pleurer encore plus et à ne pas dormir de la nuit (conception béhavioriste). On avait enseigné qu'il fallait nourrir les enfants à horaires réguliers, ne pas les prendre dans les bras, ni les embrasser ou les bercer, parce que cela ne les préparerait pas à devenir plus tard des individus forts et indépendants dans un monde difficile. 
@@ -579,7 +595,9 @@
           <t>Polémiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On l'accusa d'être le chef de file de l'éducation permissive, et d'être responsable de ses prétendues conséquences négatives. Norman Vincent Peale écrivit que « dans les années 1960, les États-Unis ont payé le prix de deux générations de parents qui ont suivi les conseils éducatifs du docteur Spock, en satisfaisant immédiatement les besoins des enfants ». Le vice-président Spiro Agnew le désignait comme le « père de la permissivité » et rendait ses principes responsables du développement du manque de respect de la loi chez les jeunes des années 1960.
 Les partisans de Spock pensent que ces critiques révèlent une méconnaissance de ce qu'il a vraiment écrit. Lui-même, dans son autobiographie, signale qu'il n'a jamais été l'avocat de la permissivité, et il remarque que ces accusations ne sont apparues qu'à partir du moment où il s'est publiquement opposé à la guerre du Viêt Nam. Il considérait ces accusations comme des attaques personnelles, dont la nature et la motivation politique ne faisaient aucun doute.
@@ -612,7 +630,9 @@
           <t>Engagement politique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1957, il fut l'un des fondateurs du SANE (comité pour une saine politique nucléaire). Il fut un opposant actif à la guerre du Viêt Nam.
 En 1967, il allait être désigné comme candidat à la vice-présidence de Martin Luther King Jr lors de la conférence nationale pour une nouvelle politique à Chicago le jour du Labor Day. Mais, comme l'a écrit William F. Pepper dans son livre Orders to Kill (Meurtres sur commandes), la conférence fut sabotée par des provocateurs à l'ordre du gouvernement.
@@ -648,7 +668,9 @@
           <t>Célébrité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à une rumeur publique, ce n'est pas son fils Michael (directeur à la retraite du musée des enfants de Boston) qui s'est suicidé, mais son petit-fils Peter âgé de 22 ans le 25 décembre 1983, en se jetant du toit de ce même musée de Boston. Il souffrait depuis longtemps de troubles mentaux.
 Il est évoqué dans le 172e des 480 souvenirs cités par Georges Perec,  dans son texte Je me souviens.
@@ -683,7 +705,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Baby and Child Care (1946, 9e édition révisée en 2012)
 A Baby's First Year (1954)
@@ -697,7 +721,7 @@
 Raising Children in a Difficult Time (1974)
 Spock on Parenting (1988)
 Spock on Spock: a Memoir of Growing Up With the Century (1989)
-A Better World for Our Children (1994)[1]
+A Better World for Our Children (1994)
 Dr Spock's the School Years: The Emotional and Social Development of Children 01 Edition (2001)</t>
         </is>
       </c>
